--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="12_ncr:500000_{7D4A904A-F9D1-4DCF-ADDE-198338876D65}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr documentId="12_ncr:500000_{7B90A1E7-C430-413D-9EF0-97B2995BD22D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1350"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="4500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -28,25 +28,34 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Test_1</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>Test_2</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>qa@byteant.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>Firefox</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Login_Chrome</t>
+  </si>
+  <si>
+    <t>Login_Firefox</t>
   </si>
 </sst>
 </file>
@@ -54,7 +63,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +71,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,14 +101,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,51 +411,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
-    <col min="3" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row customHeight="1" ht="17.25" r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="12_ncr:500000_{7B90A1E7-C430-413D-9EF0-97B2995BD22D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr documentId="12_ncr:500000_{114941BF-55D2-4F3B-B38D-827C059C8BC4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="4500"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Login_Firefox</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -128,9 +131,13 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -414,7 +421,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,36 +450,36 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" s="5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="12_ncr:500000_{114941BF-55D2-4F3B-B38D-827C059C8BC4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr documentId="12_ncr:500000_{2AAF18EC-8BEE-4B7C-895E-C7CD82A7AFDD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="4950"/>
+    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="5400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -46,19 +46,19 @@
     <t>test</t>
   </si>
   <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>LogIn_LogOut_Chrome</t>
+  </si>
+  <si>
+    <t>LogIn_LogOut_Firefox</t>
+  </si>
+  <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Login_Chrome</t>
-  </si>
-  <si>
-    <t>Login_Firefox</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -421,12 +421,12 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="1" width="18.0" collapsed="true"/>
     <col min="4" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -479,7 +479,9 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/src/testData/TestData.xlsx
+++ b/src/testData/TestData.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="12_ncr:500000_{2AAF18EC-8BEE-4B7C-895E-C7CD82A7AFDD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="5400"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -40,33 +39,20 @@
     <t>Password</t>
   </si>
   <si>
-    <t>qa@byteant.com</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Firefox</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>LogIn_LogOut_Chrome</t>
   </si>
   <si>
     <t>LogIn_LogOut_Firefox</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,29 +107,29 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -160,10 +146,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -198,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -233,7 +219,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -327,21 +313,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -358,7 +344,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -410,29 +396,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="17.25" r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -449,42 +435,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>